--- a/questions/Assignment 10 Mesh Command List.xlsx
+++ b/questions/Assignment 10 Mesh Command List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCBoulder\Acads\Sem_4\IoT\assignments\assignment-10-bluetooth-mesh-aakashpk\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D30029-CC97-42FC-9741-1902A9D2F01C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C2FB3C-D569-4F77-9612-53A44794A942}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -595,7 +595,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
